--- a/AW_scraper/files/parliament_period.xlsx
+++ b/AW_scraper/files/parliament_period.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -504,39 +504,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2017</t>
+          <t>EU-Parlament 2024 - 2029</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/49</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/155</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/eu</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2017-05-07</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2017-03-29</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2017-05-06</t>
+          <t>2029-07-15</t>
         </is>
       </c>
     </row>
@@ -545,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -554,17 +550,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2017</t>
+          <t>Brandenburg Wahl 2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/48</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/154</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -576,17 +572,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2017-05-14</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2017-03-27</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2017-05-13</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -595,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -604,17 +600,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2016</t>
+          <t>Sachsen Wahl 2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/47</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/153</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -626,17 +622,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2016-09-04</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2016-08-15</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
     </row>
@@ -645,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -654,17 +650,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2016</t>
+          <t>Thüringen Wahl 2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/46</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/152</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -676,17 +672,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2016-09-18</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2016-07-26</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2016-09-17</t>
+          <t>2024-09-05</t>
         </is>
       </c>
     </row>
@@ -695,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -704,17 +700,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2016</t>
+          <t>EU-Parlament Wahl 2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/45</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/151</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2024</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -726,17 +722,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2016-03-13</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2016-02-18</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2016-03-12</t>
+          <t>2024-06-09</t>
         </is>
       </c>
     </row>
@@ -745,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -754,39 +750,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2016</t>
+          <t>Hessen 2024 - 2029</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/44</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/150</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/hessen</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2016-03-13</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2016-02-11</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2016-03-12</t>
+          <t>2029-01-31</t>
         </is>
       </c>
     </row>
@@ -795,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -804,39 +796,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2015</t>
+          <t>Bayern 2023 - 2028</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/43</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/149</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2015</t>
+          <t>https://www.abgeordnetenwatch.de/bayern</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2015-05-10</t>
+          <t>2028-10-31</t>
         </is>
       </c>
     </row>
@@ -845,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -854,17 +842,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2015</t>
+          <t>Hessen Wahl 2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/42</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/148</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2015</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/hessen-wahl-2023</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -876,17 +864,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2015-02-15</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2015-01-14</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2015-02-14</t>
+          <t>2023-10-07</t>
         </is>
       </c>
     </row>
@@ -895,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -904,17 +892,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2014</t>
+          <t>Bayern Wahl 2023</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/41</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/147</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/bayern-wahl-2023</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -926,17 +914,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2014-09-14</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2023-10-07</t>
         </is>
       </c>
     </row>
@@ -945,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -954,39 +942,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2014</t>
+          <t>Bremen 2023 - 2027</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/146</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/bremen</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2014-09-14</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2027-06-01</t>
         </is>
       </c>
     </row>
@@ -995,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1004,17 +988,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2014</t>
+          <t>Bremen Wahl 2023</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/145</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/bremen-wahl-2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1026,17 +1010,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2023-05-13</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1054,17 +1038,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2013</t>
+          <t>Berlin Wahl 2023</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/144</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wiederholungswahl-2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1076,17 +1060,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2013-09-15</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2023-02-12</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1104,39 +1088,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2013</t>
+          <t>Niedersachsen 2022 - 2027</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/143</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2013-09-22</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2013-01-18</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2013-09-21</t>
+          <t>2027-11-18</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1154,17 +1134,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2013</t>
+          <t>Niedersachsen Wahl 2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/142</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2022</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1176,17 +1156,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2013-09-22</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2013-10-20</t>
+          <t>2022-10-08</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1204,39 +1184,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2013</t>
+          <t>Nordrhein-Westfalen 2022 - 2027</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/139</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2013-01-20</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2013-01-19</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2013-01-19</t>
+          <t>2027-05-30</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1254,39 +1230,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2012</t>
+          <t>Schleswig-Holstein 2022 - 2027</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/138</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2012-05-13</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2012-04-12</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2012-05-12</t>
+          <t>2027-05-30</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1304,39 +1276,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2012</t>
+          <t>Saarland 2022 - 2027</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/137</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/saarland</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2012-05-06</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2012-04-05</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2012-05-05</t>
+          <t>2027-03-27</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1354,17 +1322,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Saarland Wahl 2012</t>
+          <t>Nordrhein-Westfalen Wahl 2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/136</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2022</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1376,17 +1344,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2012-03-25</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2012-02-24</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2012-03-24</t>
+          <t>2022-05-14</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1404,17 +1372,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2011</t>
+          <t>Schleswig-Holstein Wahl 2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/135</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2022</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1426,17 +1394,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2011-09-04</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2011-07-04</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2011-09-03</t>
+          <t>2022-05-07</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1413,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1454,39 +1422,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2011</t>
+          <t>Mecklenburg-Vorpommern 2021 - 2026</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/134</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2011-05-22</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2011-04-21</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2011-05-21</t>
+          <t>2026-10-25</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1504,39 +1468,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2011</t>
+          <t>Berlin 2021 - 2026</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/133</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/berlin</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2011-03-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2011-02-26</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2011-03-26</t>
+          <t>2026-10-25</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1554,39 +1514,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2011</t>
+          <t>Bundestag 2021 - 2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/132</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2011-03-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2011-04-10</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2011-05-10</t>
+          <t>2025-10-26</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1604,39 +1560,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2011</t>
+          <t>Sachsen-Anhalt 2021 - 2026</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/131</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2011-03-20</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2011-02-19</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2011-03-19</t>
+          <t>2026-06-06</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1654,17 +1606,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2011</t>
+          <t>Mecklenburg-Vorpommern Wahl 2021</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/130</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2021</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1676,17 +1628,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2011-02-20</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2011-01-19</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2011-02-19</t>
+          <t>2021-06-25</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1704,17 +1656,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2010</t>
+          <t>Berlin Wahl 2021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/129</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2021</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1726,17 +1678,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2010-05-09</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2010-04-08</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2010-05-08</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1754,17 +1706,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2009</t>
+          <t>Bundestag Wahl 2021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/128</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2021</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1776,17 +1728,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2009-08-26</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2009-09-26</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1804,39 +1756,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2009</t>
+          <t>Rheinland-Pfalz 2021 - 2026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/127</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2009-08-26</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2009-09-26</t>
+          <t>2026-03-13</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1854,39 +1802,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2009</t>
+          <t>Baden-Württemberg 2021 - 2026</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/126</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2009-09-19</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2009-10-26</t>
+          <t>2026-03-13</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1839,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1904,17 +1848,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2009</t>
+          <t>Sachsen-Anhalt Wahl 2021</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/125</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2021</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1926,17 +1870,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2021-06-06</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2009-09-20</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2009-10-20</t>
+          <t>2021-06-05</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1954,17 +1898,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2009</t>
+          <t>Rheinland-Pfalz Wahl 2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2021</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1976,17 +1920,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2021-03-14</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2009-07-11</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2009-08-29</t>
+          <t>2021-03-13</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2004,17 +1948,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Saarland Wahl 2009</t>
+          <t>Baden-Württemberg Wahl 2021</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/123</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2021</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2026,17 +1970,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2021-03-14</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2009-07-29</t>
+          <t>2021-02-01</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2009-08-29</t>
+          <t>2021-03-13</t>
         </is>
       </c>
     </row>
@@ -2045,7 +1989,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2054,39 +1998,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2009</t>
+          <t>Hamburg 2020 - 2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/122</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2009-06-07</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2009-05-06</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2009-06-06</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2104,39 +2044,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2009</t>
+          <t>Thüringen 2019 - 2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/121</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2009-01-28</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2009-01-02</t>
+          <t>2019-11-10</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2009-01-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2154,39 +2090,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2008</t>
+          <t>Brandenburg 2019 - 2024</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/120</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/7</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2008-09-28</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2008-09-19</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2008-10-19</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2204,39 +2136,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2008</t>
+          <t>Sachsen 2019 - 2024</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/119</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2008-02-24</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2008-01-23</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2008-02-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2173,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2254,39 +2182,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2008</t>
+          <t>Bremen 2019 - 2023</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/118</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/20</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2008-01-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2007-12-25</t>
+          <t>2019-06-20</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2008-01-26</t>
+          <t>2023-05-19</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2304,39 +2228,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2008</t>
+          <t>EU-Parlament 2019 - 2024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/117</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/eu/9</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2008-01-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2007-12-26</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2008-01-26</t>
+          <t>2024-07-15</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2265,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2354,39 +2274,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2007</t>
+          <t>Hessen 2018 - 2024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/116</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/20</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2007-05-30</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2007-04-29</t>
+          <t>2018-12-12</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2007-05-29</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2311,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2404,39 +2320,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2006</t>
+          <t>Bayern 2018 - 2023</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/115</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2006-09-17</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2006-09-16</t>
+          <t>2023-10-25</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2454,39 +2366,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2006</t>
+          <t>Sachsen-Anhalt 2016 - 2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/114</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/7</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2006-09-17</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2016-01-10</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2006-09-16</t>
+          <t>2021-06-05</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2504,39 +2412,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2006</t>
+          <t>Saarland 2017 - 2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/113</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2006-02-25</t>
+          <t>2017-04-25</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2022-03-25</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2449,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2554,39 +2458,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2006</t>
+          <t>Niedersachsen 2017 - 2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/112</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2006-02-18</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2022-10-14</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2604,39 +2504,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2006</t>
+          <t>Bundestag 2017 - 2021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/111</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/19</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2006-02-25</t>
+          <t>2017-10-24</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2021-10-25</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2654,39 +2550,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2005</t>
+          <t>Schleswig-Holstein 2017 - 2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/110</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2005-09-18</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2005-09-18</t>
+          <t>2022-06-06</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2704,39 +2596,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2011</t>
+          <t>Nordrhein-Westfalen 2017 - 2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/109</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/17</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2011-08-17</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2022-05-30</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2754,48 +2642,44 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2014</t>
+          <t>Mecklenburg-Vorpommern 2016 - 2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/108</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/7</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2014-05-25</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2014-05-25</t>
+          <t>2021-10-03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2804,17 +2688,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bayern 2013 - 2018</t>
+          <t>Berlin 2016 - 2021</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/99</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/107</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/17</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/18</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2827,21 +2711,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2016-10-27</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2018-08-13</t>
+          <t>2021-10-03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2850,17 +2734,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hessen 2013 - 2018</t>
+          <t>Rheinland-Pfalz 2016 - 2021</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/98</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/106</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/19</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/17</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2873,21 +2757,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2016-05-18</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2018-08-22</t>
+          <t>2021-03-12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2896,17 +2780,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bundestag 2013 - 2017</t>
+          <t>Baden-Württemberg 2016 - 2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/97</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/105</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/18</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/16</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2919,21 +2803,21 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2017-10-24</t>
+          <t>2021-03-12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2942,17 +2826,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Niedersachsen 2013 - 2017</t>
+          <t>Bremen 2015 - 2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/96</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/104</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/17</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2965,21 +2849,21 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2013-01-20</t>
+          <t>2015-05-10</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2017-09-11</t>
+          <t>2019-03-26</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2988,17 +2872,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2012 - 2017</t>
+          <t>Hamburg 2015 - 2020</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/95</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/103</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/16</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/21</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3011,21 +2895,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2012-05-13</t>
+          <t>2015-03-06</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2017-05-13</t>
+          <t>2020-01-05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3034,17 +2918,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2012 - 2017</t>
+          <t>Brandenburg 2014 - 2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/94</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/102</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/18</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/6</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3057,21 +2941,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2017-05-21</t>
+          <t>2019-06-29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3080,17 +2964,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2011 - 2016</t>
+          <t>Thüringen 2014 - 2019</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/90</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/101</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/16</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3103,21 +2987,21 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2011-05-18</t>
+          <t>2014-08-05</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2019-09-02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B55" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3126,17 +3010,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2011 - 2016</t>
+          <t>Sachsen 2014 - 2019</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/89</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/100</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/15</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/6</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3149,21 +3033,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2011-05-11</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2019-06-25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B56" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3172,17 +3056,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hamburg 2011 - 2015</t>
+          <t>Bayern 2013 - 2018</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/87</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/99</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/20</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/17</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3195,21 +3079,21 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2011-03-07</t>
+          <t>2013-10-07</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2015-03-07</t>
+          <t>2018-08-13</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B57" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3218,17 +3102,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2010 - 2012</t>
+          <t>Hessen 2013 - 2018</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/86</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/98</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/15</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3241,21 +3125,21 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
+          <t>2013-10-07</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2012-05-13</t>
+          <t>2018-08-22</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B58" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3264,17 +3148,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2009 - 2012</t>
+          <t>Bundestag 2013 - 2017</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/85</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/97</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/17</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3287,21 +3171,21 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2009-10-27</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2012-05-06</t>
+          <t>2017-10-24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3310,17 +3194,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sachsen 2009 - 2014</t>
+          <t>Niedersachsen 2013 - 2017</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/84</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/96</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/5</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/17</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3333,21 +3217,21 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2009-09-29</t>
+          <t>2013-01-20</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2017-09-11</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B60" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3356,17 +3240,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bundestag 2009 - 2013</t>
+          <t>Nordrhein-Westfalen 2012 - 2017</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/83</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/95</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/17</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/16</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3379,21 +3263,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2009-10-27</t>
+          <t>2012-05-13</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2013-09-22</t>
+          <t>2017-05-13</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B61" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3402,17 +3286,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brandenburg 2009 - 2014</t>
+          <t>Schleswig-Holstein 2012 - 2017</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/82</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/94</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/5</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/18</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3425,21 +3309,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2009-10-21</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2014-10-21</t>
+          <t>2017-05-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B62" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3448,17 +3332,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thüringen 2009 - 2014</t>
+          <t>Rheinland-Pfalz 2011 - 2016</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/81</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/90</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/5</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/16</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3471,21 +3355,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2011-05-18</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2016-05-18</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B63" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3494,17 +3378,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EU-Parlament 2009 - 2014</t>
+          <t>Baden-Württemberg 2011 - 2016</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/79</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/89</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/7</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/15</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3517,21 +3401,21 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2009-07-14</t>
+          <t>2011-05-11</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2016-05-11</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3540,17 +3424,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hessen 2009 - 2013</t>
+          <t>Hamburg 2011 - 2015</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/78</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/87</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/18</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3563,21 +3447,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2009-02-05</t>
+          <t>2011-03-07</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B65" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3586,17 +3470,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bayern 2008 - 2013</t>
+          <t>Nordrhein-Westfalen 2010 - 2012</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/77</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/86</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/16</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3609,21 +3493,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2008-10-20</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2013-09-15</t>
+          <t>2012-05-13</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B66" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3632,17 +3516,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hamburg 2008 - 2011</t>
+          <t>Schleswig-Holstein 2009 - 2012</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/76</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/85</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/19</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/17</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3655,21 +3539,21 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2008-03-12</t>
+          <t>2009-10-27</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2011-02-20</t>
+          <t>2012-05-06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B67" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3678,17 +3562,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Niedersachsen 2008 - 2013</t>
+          <t>Sachsen 2009 - 2014</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/75</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/84</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/16</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/5</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3701,21 +3585,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2008-02-26</t>
+          <t>2009-09-29</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2013-01-20</t>
+          <t>2014-09-29</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3724,17 +3608,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2006 - 2011</t>
+          <t>Bundestag 2009 - 2013</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/68</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/83</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/14</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/17</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3747,21 +3631,21 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2006-03-26</t>
+          <t>2009-10-27</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2011-03-27</t>
+          <t>2013-09-22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3770,17 +3654,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bundestag 2005 - 2009</t>
+          <t>Brandenburg 2009 - 2014</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/67</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/82</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/16</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3793,21 +3677,21 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2005-09-18</t>
+          <t>2009-10-21</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2014-10-21</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B70" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3816,17 +3700,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2005 - 2010</t>
+          <t>Thüringen 2009 - 2014</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/66</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/81</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/14</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3839,21 +3723,21 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2005-05-22</t>
+          <t>2009-08-30</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2010-06-10</t>
+          <t>2014-08-30</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B71" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3862,17 +3746,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EU-Parlament 2004 - 2009</t>
+          <t>EU-Parlament 2009 - 2014</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/65</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/79</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/6</t>
+          <t>https://www.abgeordnetenwatch.de/eu/7</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3885,21 +3769,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2004-06-13</t>
+          <t>2009-07-14</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2009-06-04</t>
+          <t>2014-07-14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B72" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3908,17 +3792,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hamburg 2004 - 2008</t>
+          <t>Hessen 2009 - 2013</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/64</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/78</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/18</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/18</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3931,21 +3815,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2004-03-18</t>
+          <t>2009-02-05</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2008-02-24</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3954,17 +3838,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Berlin 2011 - 2016</t>
+          <t>Bayern 2008 - 2013</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/63</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/77</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/17</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/16</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -3977,21 +3861,21 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2008-10-20</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2016-09-18</t>
+          <t>2013-09-15</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B74" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4000,17 +3884,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>EU-Parlament 2014 - 2019</t>
+          <t>Hamburg 2008 - 2011</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/62</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/76</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/8</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/19</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4023,21 +3907,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2014-06-21</t>
+          <t>2008-03-12</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2011-02-20</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B75" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4046,48 +3930,44 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2020</t>
+          <t>Niedersachsen 2008 - 2013</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/61</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/75</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2020</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2020-02-23</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2008-02-26</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2020-02-22</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B76" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4096,48 +3976,44 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2019</t>
+          <t>Baden-Württemberg 2006 - 2011</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/60</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/68</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/14</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2011-03-27</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B77" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4146,48 +4022,44 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2019</t>
+          <t>Bundestag 2005 - 2009</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/59</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/67</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/16</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>2019-09-01</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2019-07-05</t>
+          <t>2005-09-18</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2009-09-27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B78" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4196,48 +4068,44 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2019</t>
+          <t>Nordrhein-Westfalen 2005 - 2010</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/58</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/66</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/14</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2019-09-01</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2019-06-23</t>
+          <t>2005-05-22</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2010-06-10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B79" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4246,48 +4114,44 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2019</t>
+          <t>EU-Parlament 2004 - 2009</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/57</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/65</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/eu/6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>2019-05-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2019-03-25</t>
+          <t>2004-06-13</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2019-05-25</t>
+          <t>2009-06-04</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B80" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4296,48 +4160,44 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2019</t>
+          <t>Hamburg 2004 - 2008</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/56</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/64</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>2019-05-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2019-03-25</t>
+          <t>2004-03-18</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2019-05-25</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B81" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4346,48 +4206,44 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2018</t>
+          <t>Berlin 2011 - 2016</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/55</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/63</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2018</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/17</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>2018-10-28</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2018-08-27</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2018-10-27</t>
+          <t>2016-09-18</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B82" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4396,48 +4252,44 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2018</t>
+          <t>EU-Parlament 2014 - 2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/54</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/62</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2018</t>
+          <t>https://www.abgeordnetenwatch.de/eu/8</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2018-08-13</t>
+          <t>2014-06-21</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2018-10-13</t>
+          <t>2019-03-31</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B83" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4446,17 +4298,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2017</t>
+          <t>Hamburg Wahl 2020</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/51</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/61</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2020</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -4468,26 +4320,26 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2017-09-14</t>
+          <t>2020-01-05</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2020-02-22</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4496,17 +4348,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2017</t>
+          <t>Thüringen Wahl 2019</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/50</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/60</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2019</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -4518,26 +4370,26 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2017-09-24</t>
+          <t>2019-10-27</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2017-07-20</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2019-10-26</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B85" t="n">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4546,44 +4398,48 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bayern 2023 - 2028</t>
+          <t>Brandenburg Wahl 2019</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/149</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/59</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2019</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2019-09-01</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2028-10-31</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B86" t="n">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4592,17 +4448,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2023</t>
+          <t>Sachsen Wahl 2019</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/148</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/58</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/hessen-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2019</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -4614,26 +4470,26 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2019-06-23</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B87" t="n">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4642,17 +4498,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2023</t>
+          <t>Bremen Wahl 2019</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/147</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/57</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/bayern-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2019</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -4664,26 +4520,26 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2019-05-26</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2019-05-25</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B88" t="n">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4692,44 +4548,48 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Bremen 2023 - 2027</t>
+          <t>EU-Parlament Wahl 2019</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/146</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/56</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2019</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2027-06-01</t>
+          <t>2019-05-25</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B89" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4738,17 +4598,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2023</t>
+          <t>Hessen Wahl 2018</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/145</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/55</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/bremen-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2018</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -4760,26 +4620,26 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2018-10-28</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2018-08-27</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2018-10-27</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B90" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4788,17 +4648,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2023</t>
+          <t>Bayern Wahl 2018</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/144</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/54</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wiederholungswahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2018</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4810,26 +4670,26 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2018-10-14</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2018-08-13</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2018-10-13</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B91" t="n">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4838,44 +4698,48 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Niedersachsen 2022 - 2027</t>
+          <t>Niedersachsen Wahl 2017</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/143</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/51</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2017</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2017-10-15</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2017-09-14</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2027-11-18</t>
+          <t>2017-10-14</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B92" t="n">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4884,17 +4748,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2022</t>
+          <t>Bundestag Wahl 2017</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/142</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/50</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2017</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4906,26 +4770,26 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2017-09-24</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2017-07-20</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2017-09-23</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B93" t="n">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4934,44 +4798,48 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2022 - 2027</t>
+          <t>Schleswig-Holstein Wahl 2017</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/139</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/49</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2017</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2017-05-07</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2017-03-29</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2027-05-30</t>
+          <t>2017-05-06</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B94" t="n">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4980,44 +4848,48 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2022 - 2027</t>
+          <t>Nordrhein-Westfalen Wahl 2017</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/138</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/48</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2017</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2017-05-14</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2017-03-27</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2027-05-30</t>
+          <t>2017-05-13</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B95" t="n">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5026,44 +4898,48 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Saarland 2022 - 2027</t>
+          <t>Mecklenburg-Vorpommern Wahl 2016</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/137</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/47</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2016</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2016-09-04</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2016-08-15</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2027-03-27</t>
+          <t>2016-09-03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B96" t="n">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5072,17 +4948,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2022</t>
+          <t>Berlin Wahl 2016</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/136</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/46</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2016</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -5094,26 +4970,26 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2016-09-18</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2016-07-26</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2016-09-17</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B97" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5122,17 +4998,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2022</t>
+          <t>Rheinland-Pfalz Wahl 2016</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/135</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/45</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2016</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -5144,26 +5020,26 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2016-03-13</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2016-02-18</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2016-03-12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B98" t="n">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5172,44 +5048,48 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern 2021 - 2026</t>
+          <t>Baden-Württemberg Wahl 2016</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/134</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/44</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2016</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2016-03-13</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2016-02-11</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2016-03-12</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B99" t="n">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5218,44 +5098,48 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Berlin 2021 - 2026</t>
+          <t>Bremen Wahl 2015</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/133</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/43</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2015</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2015-05-10</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2015-05-10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B100" t="n">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5264,44 +5148,48 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bundestag 2021 - 2025</t>
+          <t>Hamburg Wahl 2015</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/132</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/42</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2015</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2015-02-15</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2015-01-14</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B101" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5310,44 +5198,48 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt 2021 - 2026</t>
+          <t>Brandenburg Wahl 2014</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/131</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/41</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2014</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2014-09-14</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2014-09-13</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B102" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5356,17 +5248,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2021</t>
+          <t>Thüringen Wahl 2014</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/130</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -5378,26 +5270,26 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2014-09-14</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2014-08-05</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B103" t="n">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5406,17 +5298,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2021</t>
+          <t>Sachsen Wahl 2014</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/129</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -5428,26 +5320,26 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2014-08-31</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2014-08-05</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2014-08-31</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B104" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5456,17 +5348,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2021</t>
+          <t>Bayern Wahl 2013</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/128</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -5478,26 +5370,26 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2013-09-15</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2013-10-07</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B105" t="n">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5506,44 +5398,48 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2021 - 2026</t>
+          <t>Hessen Wahl 2013</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/127</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2013-09-22</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2013-01-18</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2013-09-21</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B106" t="n">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5552,44 +5448,48 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2021 - 2026</t>
+          <t>Bundestag Wahl 2013</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/126</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2013-09-22</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2013-10-20</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B107" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5598,17 +5498,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2021</t>
+          <t>Niedersachsen Wahl 2013</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/125</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -5620,26 +5520,26 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2013-01-20</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2013-01-19</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B108" t="n">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5648,17 +5548,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2021</t>
+          <t>Nordrhein-Westfalen Wahl 2012</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/124</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -5670,26 +5570,26 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2021-03-14</t>
+          <t>2012-05-13</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2012-04-12</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2021-03-13</t>
+          <t>2012-05-12</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B109" t="n">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5698,17 +5598,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2021</t>
+          <t>Schleswig-Holstein Wahl 2012</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/123</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -5720,26 +5620,26 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2021-03-14</t>
+          <t>2012-05-06</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2012-04-05</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2021-03-13</t>
+          <t>2012-05-05</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B110" t="n">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5748,44 +5648,48 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hamburg 2020 - 2025</t>
+          <t>Saarland Wahl 2012</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/122</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2012-03-25</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2012-02-24</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B111" t="n">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5794,44 +5698,48 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Thüringen 2019 - 2024</t>
+          <t>Mecklenburg-Vorpommern Wahl 2011</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/121</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2011-09-04</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2019-11-10</t>
+          <t>2011-07-04</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2011-09-03</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B112" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5840,44 +5748,48 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Brandenburg 2019 - 2024</t>
+          <t>Bremen Wahl 2011</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/120</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/7</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2011-05-22</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2011-04-21</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2011-05-21</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B113" t="n">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5886,44 +5798,48 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sachsen 2019 - 2024</t>
+          <t>Rheinland-Pfalz Wahl 2011</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/119</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2011-03-27</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2011-02-26</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2011-03-26</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B114" t="n">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5932,44 +5848,48 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bremen 2019 - 2023</t>
+          <t>Baden-Württemberg Wahl 2011</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/118</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/20</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2011-03-27</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2019-06-20</t>
+          <t>2011-04-10</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2011-05-10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B115" t="n">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5978,44 +5898,48 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>EU-Parlament 2019 - 2024</t>
+          <t>Sachsen-Anhalt Wahl 2011</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/117</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/9</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2011-03-20</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2019-05-28</t>
+          <t>2011-02-19</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2011-03-19</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -6024,44 +5948,48 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hessen 2018 - 2024</t>
+          <t>Hamburg Wahl 2011</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/116</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/20</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2011-02-20</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2018-12-12</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2011-02-19</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B117" t="n">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -6070,44 +5998,48 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Bayern 2018 - 2023</t>
+          <t>Nordrhein-Westfalen Wahl 2010</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/115</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/18</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2010-05-09</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2010-04-08</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2010-05-08</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B118" t="n">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6116,44 +6048,48 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt 2016 - 2021</t>
+          <t>Schleswig-Holstein Wahl 2009</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/114</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/7</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2016-01-10</t>
+          <t>2009-08-26</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2009-09-26</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B119" t="n">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6162,44 +6098,48 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Saarland 2017 - 2022</t>
+          <t>Sachsen Wahl 2009</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/113</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/16</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2017-04-25</t>
+          <t>2009-08-26</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2009-09-26</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B120" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6208,44 +6148,48 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Niedersachsen 2017 - 2022</t>
+          <t>Bundestag Wahl 2009</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/112</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/18</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2009-09-19</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2009-10-26</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B121" t="n">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6254,44 +6198,48 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Bundestag 2017 - 2021</t>
+          <t>Brandenburg Wahl 2009</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/111</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/19</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2017-10-24</t>
+          <t>2009-09-20</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2021-10-25</t>
+          <t>2009-10-20</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B122" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6300,44 +6248,48 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2017 - 2022</t>
+          <t>Thüringen Wahl 2009</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/110</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/19</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2009-08-30</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2009-07-11</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2009-08-29</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B123" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6346,44 +6298,48 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2017 - 2022</t>
+          <t>Saarland Wahl 2009</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/109</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/17</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2009-08-30</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2009-07-29</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2009-08-29</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B124" t="n">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6392,44 +6348,48 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern 2016 - 2021</t>
+          <t>EU-Parlament Wahl 2009</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/108</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/7</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2009-06-07</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>2009-05-06</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2009-06-06</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B125" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6438,44 +6398,48 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Berlin 2016 - 2021</t>
+          <t>Hessen Wahl 2009</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/107</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/18</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2009-01-28</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2016-10-27</t>
+          <t>2009-01-02</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B126" t="n">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6484,44 +6448,48 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2016 - 2021</t>
+          <t>Bayern Wahl 2008</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/106</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/17</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2008-09-28</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2008-09-19</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2008-10-19</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B127" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6530,44 +6498,48 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2016 - 2021</t>
+          <t>Hamburg Wahl 2008</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/105</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/16</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2008-02-24</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2008-01-23</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B128" t="n">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6576,44 +6548,48 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Bremen 2015 - 2019</t>
+          <t>Niedersachsen Wahl 2008</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/104</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/19</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2008-01-27</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2015-05-10</t>
+          <t>2007-12-25</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B129" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6622,44 +6598,48 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hamburg 2015 - 2020</t>
+          <t>Hessen Wahl 2008</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/103</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/21</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2008-01-27</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2015-03-06</t>
+          <t>2007-12-26</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B130" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6668,44 +6648,48 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Brandenburg 2014 - 2019</t>
+          <t>Bremen Wahl 2007</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/102</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/6</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2007-05-30</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2007-04-29</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2019-06-29</t>
+          <t>2007-05-29</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B131" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6714,44 +6698,48 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Thüringen 2014 - 2019</t>
+          <t>Mecklenburg-Vorpommern Wahl 2006</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/101</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/6</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2006-09-17</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2006-09-16</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6760,44 +6748,48 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sachsen 2014 - 2019</t>
+          <t>Berlin Wahl 2006</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/100</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/6</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2006-09-17</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2006-09-16</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B133" t="n">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6806,44 +6798,48 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>EU-Parlament 2024 - 2029</t>
+          <t>Sachsen-Anhalt Wahl 2006</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/155</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2006-03-26</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2006-02-25</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2029-07-15</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B134" t="n">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6852,17 +6848,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2024</t>
+          <t>Rheinland-Pfalz Wahl 2006</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/154</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -6874,26 +6870,26 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2006-02-18</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B135" t="n">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6902,17 +6898,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2024</t>
+          <t>Baden-Württemberg Wahl 2006</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/153</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -6924,26 +6920,26 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2006-02-25</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B136" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6952,17 +6948,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2024</t>
+          <t>Bundestag Wahl 2005</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/152</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -6974,26 +6970,26 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2005-09-18</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2005-09-18</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B137" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -7002,17 +6998,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2024</t>
+          <t>Berlin Wahl 2011</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/151</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -7024,26 +7020,26 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2011-08-17</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2011-09-17</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B138" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -7052,35 +7048,1889 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hessen 2024 - 2029</t>
+          <t>EU-Parlament Wahl 2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/150</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2014-05-25</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2029-01-31</t>
+          <t>2014-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>40</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Thüringen Wahl 2014</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2014-09-14</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2014-08-01</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2014-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>39</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sachsen Wahl 2014</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2014-08-31</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2014-08-05</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2014-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" t="n">
+        <v>38</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Bayern Wahl 2013</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2013-09-15</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2013-09-07</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2013-10-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" t="n">
+        <v>37</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Hessen Wahl 2013</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2013-09-22</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2013-01-18</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2013-09-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="n">
+        <v>36</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Bundestag Wahl 2013</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2013-09-22</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2013-09-10</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2013-10-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" t="n">
+        <v>35</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Niedersachsen Wahl 2013</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2013-01-20</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2013-01-19</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2013-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B145" t="n">
+        <v>34</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Nordrhein-Westfalen Wahl 2012</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2012-05-13</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2012-04-12</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2012-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B146" t="n">
+        <v>33</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Schleswig-Holstein Wahl 2012</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2012-05-06</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2012-04-05</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2012-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B147" t="n">
+        <v>32</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Saarland Wahl 2012</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2012-03-25</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2012-02-24</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2012-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B148" t="n">
+        <v>31</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Mecklenburg-Vorpommern Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2011-09-04</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2011-07-04</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2011-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Bremen Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2011-05-22</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2011-04-21</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>2011-05-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B150" t="n">
+        <v>29</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Rheinland-Pfalz Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2011-03-27</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2011-02-26</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>2011-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2011-03-27</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2011-04-10</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2011-05-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sachsen-Anhalt Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2011-03-20</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2011-02-19</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2011-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Hamburg Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2011-02-20</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2011-01-19</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>2011-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Nordrhein-Westfalen Wahl 2010</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2010-05-09</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2010-04-08</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2010-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B155" t="n">
+        <v>24</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Schleswig-Holstein Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2009-08-26</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>2009-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B156" t="n">
+        <v>23</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sachsen Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2009-08-26</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2009-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B157" t="n">
+        <v>22</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Bundestag Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2009-09-19</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2009-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B158" t="n">
+        <v>21</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Brandenburg Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2009-09-27</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2009-09-20</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>2009-10-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Thüringen Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2009-08-30</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2009-07-11</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2009-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B160" t="n">
+        <v>19</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Saarland Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2009-08-30</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2009-07-29</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>2009-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B161" t="n">
+        <v>18</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>EU-Parlament Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2009-06-07</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2009-05-06</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2009-06-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Hessen Wahl 2009</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2009-01-28</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2009-01-02</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2009-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B163" t="n">
+        <v>16</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Bayern Wahl 2008</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2008-09-28</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2008-09-19</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>2008-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Hamburg Wahl 2008</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2008-02-24</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2008-01-23</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>2008-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B165" t="n">
+        <v>14</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Niedersachsen Wahl 2008</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2008-01-27</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2007-12-25</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>2008-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B166" t="n">
+        <v>13</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hessen Wahl 2008</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2008-01-27</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2007-12-26</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>2008-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Bremen Wahl 2007</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2007-05-30</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2007-04-29</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2007-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Mecklenburg-Vorpommern Wahl 2006</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2006-09-17</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2006-08-16</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>2006-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B169" t="n">
+        <v>10</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Berlin Wahl 2006</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2006-09-17</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2006-08-16</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>2006-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sachsen-Anhalt Wahl 2006</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2006-03-26</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2006-02-25</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>2006-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Rheinland-Pfalz Wahl 2006</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2006-03-26</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2006-02-18</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>2006-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg Wahl 2006</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2006-03-26</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2006-02-25</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>2006-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Bundestag Wahl 2005</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2005-09-18</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2005-08-18</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>2005-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Berlin Wahl 2011</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2011-09-18</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2011-08-17</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>2011-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>parliament_period</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>EU-Parlament Wahl 2014</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2014-05-25</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2014-04-25</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>2014-05-25</t>
         </is>
       </c>
     </row>

--- a/AW_scraper/files/parliament_period.xlsx
+++ b/AW_scraper/files/parliament_period.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -504,17 +504,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EU-Parlament 2024 - 2029</t>
+          <t>Brandenburg 2024 - 2029</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/155</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/158</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -527,12 +527,12 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2029-07-15</t>
+          <t>2029-10-22</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -550,39 +550,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2024</t>
+          <t>Sachsen 2024 - 2029</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/154</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/157</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2029-09-30</t>
         </is>
       </c>
     </row>
@@ -591,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -600,39 +596,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2024</t>
+          <t>Thüringen 2024 - 2029</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/153</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/156</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2029-09-30</t>
         </is>
       </c>
     </row>
@@ -641,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -650,39 +642,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2024</t>
+          <t>EU-Parlament 2024 - 2029</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/152</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/155</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/eu</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2029-07-15</t>
         </is>
       </c>
     </row>
@@ -691,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -700,17 +688,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2024</t>
+          <t>Brandenburg Wahl 2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/151</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/154</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2024</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2024</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -722,17 +710,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
@@ -741,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -750,35 +738,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hessen 2024 - 2029</t>
+          <t>Sachsen Wahl 2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/150</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/153</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2024</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2029-01-31</t>
+          <t>2024-09-05</t>
         </is>
       </c>
     </row>
@@ -787,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -796,35 +788,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bayern 2023 - 2028</t>
+          <t>Thüringen Wahl 2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/149</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/152</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2024</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2028-10-31</t>
+          <t>2024-09-05</t>
         </is>
       </c>
     </row>
@@ -833,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -842,17 +838,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2023</t>
+          <t>EU-Parlament Wahl 2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/148</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/151</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/hessen-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2024</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -864,17 +860,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2024-06-09</t>
         </is>
       </c>
     </row>
@@ -883,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -892,39 +888,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2023</t>
+          <t>Hessen 2024 - 2029</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/147</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/150</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/bayern-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/hessen</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2029-01-31</t>
         </is>
       </c>
     </row>
@@ -933,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -942,17 +934,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bremen 2023 - 2027</t>
+          <t>Bayern 2023 - 2028</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/146</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/149</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen</t>
+          <t>https://www.abgeordnetenwatch.de/bayern</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -965,12 +957,12 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2027-06-01</t>
+          <t>2028-10-31</t>
         </is>
       </c>
     </row>
@@ -979,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -988,17 +980,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2023</t>
+          <t>Hessen Wahl 2023</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/145</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/148</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/bremen-wahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1010,17 +1002,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-10-07</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1038,17 +1030,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2023</t>
+          <t>Bayern Wahl 2023</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/144</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/147</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wiederholungswahl-2023</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1060,17 +1052,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-10-07</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1088,17 +1080,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Niedersachsen 2022 - 2027</t>
+          <t>Bremen 2023 - 2027</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/143</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/146</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen</t>
+          <t>https://www.abgeordnetenwatch.de/bremen</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1111,12 +1103,12 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2027-11-18</t>
+          <t>2027-06-01</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1134,17 +1126,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2022</t>
+          <t>Bremen Wahl 2023</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/142</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/145</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/bremen-wahl-2023</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1156,17 +1148,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2023-05-13</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1184,35 +1176,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2022 - 2027</t>
+          <t>Berlin Wahl 2023</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/139</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/144</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wiederholungswahl-2023</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2027-05-30</t>
+          <t>2023-02-12</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1230,17 +1226,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2022 - 2027</t>
+          <t>Niedersachsen 2022 - 2027</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/138</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/143</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1253,12 +1249,12 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2027-05-30</t>
+          <t>2027-11-18</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1276,35 +1272,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Saarland 2022 - 2027</t>
+          <t>Niedersachsen Wahl 2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/137</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/142</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2022</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2027-03-27</t>
+          <t>2022-10-08</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1322,39 +1322,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2022</t>
+          <t>Nordrhein-Westfalen 2022 - 2027</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/136</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/139</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2027-05-30</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1359,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1372,39 +1368,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2022</t>
+          <t>Schleswig-Holstein 2022 - 2027</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/135</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/138</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2022</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2027-05-30</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1422,17 +1414,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern 2021 - 2026</t>
+          <t>Saarland 2022 - 2027</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/134</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/137</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern</t>
+          <t>https://www.abgeordnetenwatch.de/saarland</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1445,12 +1437,12 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2027-03-27</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1468,35 +1460,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Berlin 2021 - 2026</t>
+          <t>Nordrhein-Westfalen Wahl 2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/133</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/136</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2022</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-05-15</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2022-05-14</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1514,35 +1510,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bundestag 2021 - 2025</t>
+          <t>Schleswig-Holstein Wahl 2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/132</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/135</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2022</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2022-05-08</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2022-05-07</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1560,17 +1560,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt 2021 - 2026</t>
+          <t>Mecklenburg-Vorpommern 2021 - 2026</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/131</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/134</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1583,12 +1583,12 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-10-25</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1606,39 +1606,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2021</t>
+          <t>Berlin 2021 - 2026</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/130</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/133</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/berlin</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2026-10-25</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1656,39 +1652,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2021</t>
+          <t>Bundestag 2021 - 2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/129</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/132</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2025-10-26</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1689,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1706,39 +1698,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2021</t>
+          <t>Sachsen-Anhalt 2021 - 2026</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/128</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/131</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2026-06-06</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1735,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1756,35 +1744,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2021 - 2026</t>
+          <t>Mecklenburg-Vorpommern Wahl 2021</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/127</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/130</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2021</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2021-06-25</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1802,35 +1794,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2021 - 2026</t>
+          <t>Berlin Wahl 2021</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/126</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/129</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2021</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1848,17 +1844,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2021</t>
+          <t>Bundestag Wahl 2021</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/125</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/128</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2021</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1870,17 +1866,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1898,39 +1894,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2021</t>
+          <t>Rheinland-Pfalz 2021 - 2026</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/124</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/127</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2021-03-14</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2021-03-13</t>
+          <t>2026-03-13</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1948,39 +1940,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2021</t>
+          <t>Baden-Württemberg 2021 - 2026</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/123</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/126</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2021</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2021-03-14</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2021-03-13</t>
+          <t>2026-03-13</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1998,35 +1986,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hamburg 2020 - 2025</t>
+          <t>Sachsen-Anhalt Wahl 2021</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/122</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/125</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2021</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2021-06-06</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2021-06-05</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2044,35 +2036,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thüringen 2019 - 2024</t>
+          <t>Rheinland-Pfalz Wahl 2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/121</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/124</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2021</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2021-03-14</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2019-11-10</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2021-03-13</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2077,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2090,35 +2086,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Brandenburg 2019 - 2024</t>
+          <t>Baden-Württemberg Wahl 2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/120</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/123</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/7</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2021</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>legislature</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>election</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2021-03-14</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2021-02-01</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2021-03-13</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sachsen 2019 - 2024</t>
+          <t>Hamburg 2020 - 2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/119</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/122</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2159,12 +2159,12 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2182,17 +2182,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bremen 2019 - 2023</t>
+          <t>Thüringen 2019 - 2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/118</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/121</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/20</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/7</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2205,12 +2205,12 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2019-06-20</t>
+          <t>2019-11-10</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2228,17 +2228,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EU-Parlament 2019 - 2024</t>
+          <t>Brandenburg 2019 - 2024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/117</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/120</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/9</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/7</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2251,12 +2251,12 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2019-05-28</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2274,17 +2274,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hessen 2018 - 2024</t>
+          <t>Sachsen 2019 - 2024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/116</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/119</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/20</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2297,12 +2297,12 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2018-12-12</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2320,17 +2320,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bayern 2018 - 2023</t>
+          <t>Bremen 2019 - 2023</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/115</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/118</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/18</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2343,12 +2343,12 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2019-06-20</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-05-19</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt 2016 - 2021</t>
+          <t>EU-Parlament 2019 - 2024</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/114</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/117</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/7</t>
+          <t>https://www.abgeordnetenwatch.de/eu/9</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2389,12 +2389,12 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2016-01-10</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2024-07-15</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2412,17 +2412,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Saarland 2017 - 2022</t>
+          <t>Hessen 2018 - 2024</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/113</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/116</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/16</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/20</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2435,12 +2435,12 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2017-04-25</t>
+          <t>2018-12-12</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2458,17 +2458,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Niedersachsen 2017 - 2022</t>
+          <t>Bayern 2018 - 2023</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/112</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/115</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/18</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2481,12 +2481,12 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2023-10-25</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2504,17 +2504,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bundestag 2017 - 2021</t>
+          <t>Sachsen-Anhalt 2016 - 2021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/111</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/114</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/19</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/7</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2527,12 +2527,12 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2017-10-24</t>
+          <t>2016-01-10</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2021-10-25</t>
+          <t>2021-06-05</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2017 - 2022</t>
+          <t>Saarland 2017 - 2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/110</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/113</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/19</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2573,12 +2573,12 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2017-04-25</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-03-25</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2017 - 2022</t>
+          <t>Niedersachsen 2017 - 2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/109</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/112</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/17</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2619,12 +2619,12 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-10-14</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2642,17 +2642,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern 2016 - 2021</t>
+          <t>Bundestag 2017 - 2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/108</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/111</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/7</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/19</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2665,12 +2665,12 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>2017-10-24</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2021-10-25</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2688,17 +2688,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Berlin 2016 - 2021</t>
+          <t>Schleswig-Holstein 2017 - 2022</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/107</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/110</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/18</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2711,12 +2711,12 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2016-10-27</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2021-10-03</t>
+          <t>2022-06-06</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2734,17 +2734,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2016 - 2021</t>
+          <t>Nordrhein-Westfalen 2017 - 2022</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/106</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/109</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/17</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/17</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2757,12 +2757,12 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2022-05-30</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2780,17 +2780,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2016 - 2021</t>
+          <t>Mecklenburg-Vorpommern 2016 - 2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/105</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/108</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/16</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2803,12 +2803,12 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-10-03</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2826,17 +2826,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bremen 2015 - 2019</t>
+          <t>Berlin 2016 - 2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/104</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/107</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/19</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/18</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2849,21 +2849,21 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2015-05-10</t>
+          <t>2016-10-27</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2021-10-03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2872,17 +2872,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hamburg 2015 - 2020</t>
+          <t>Rheinland-Pfalz 2016 - 2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/103</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/106</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/21</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/17</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2895,21 +2895,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2015-03-06</t>
+          <t>2016-05-18</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2021-03-12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brandenburg 2014 - 2019</t>
+          <t>Baden-Württemberg 2016 - 2021</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/102</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/105</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/6</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/16</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2941,21 +2941,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2019-06-29</t>
+          <t>2021-03-12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thüringen 2014 - 2019</t>
+          <t>Bremen 2015 - 2019</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/101</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/104</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/6</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/19</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2987,21 +2987,21 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2015-05-10</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>2019-03-26</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3010,17 +3010,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sachsen 2014 - 2019</t>
+          <t>Hamburg 2015 - 2020</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/100</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/103</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/6</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/21</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3033,21 +3033,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2015-03-06</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2020-01-05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bayern 2013 - 2018</t>
+          <t>Brandenburg 2014 - 2019</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/99</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/102</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/17</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/6</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3079,21 +3079,21 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2018-08-13</t>
+          <t>2019-06-29</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hessen 2013 - 2018</t>
+          <t>Thüringen 2014 - 2019</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/98</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/101</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/19</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3125,21 +3125,21 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2014-08-05</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2018-08-22</t>
+          <t>2019-09-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3148,17 +3148,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bundestag 2013 - 2017</t>
+          <t>Sachsen 2014 - 2019</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/97</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/100</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/18</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/6</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3171,21 +3171,21 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2017-10-24</t>
+          <t>2019-06-25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3194,17 +3194,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Niedersachsen 2013 - 2017</t>
+          <t>Bayern 2013 - 2018</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/96</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/99</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/17</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/17</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3217,21 +3217,21 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2013-01-20</t>
+          <t>2013-10-07</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2017-09-11</t>
+          <t>2018-08-13</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3240,17 +3240,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2012 - 2017</t>
+          <t>Hessen 2013 - 2018</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/95</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/98</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/16</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3263,21 +3263,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2012-05-13</t>
+          <t>2013-10-07</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2017-05-13</t>
+          <t>2018-08-22</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3286,17 +3286,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2012 - 2017</t>
+          <t>Bundestag 2013 - 2017</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/94</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/97</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/18</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/18</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3309,21 +3309,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2017-05-21</t>
+          <t>2017-10-24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz 2011 - 2016</t>
+          <t>Niedersachsen 2013 - 2017</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/90</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/96</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/16</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/17</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3355,21 +3355,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2011-05-18</t>
+          <t>2013-01-20</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2017-09-11</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3378,17 +3378,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2011 - 2016</t>
+          <t>Nordrhein-Westfalen 2012 - 2017</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/89</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/95</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/15</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/16</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3401,21 +3401,21 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2011-05-11</t>
+          <t>2012-05-13</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2017-05-13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3424,17 +3424,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hamburg 2011 - 2015</t>
+          <t>Schleswig-Holstein 2012 - 2017</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/87</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/94</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/20</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/18</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3447,21 +3447,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2011-03-07</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2015-03-07</t>
+          <t>2017-05-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3470,17 +3470,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2010 - 2012</t>
+          <t>Rheinland-Pfalz 2011 - 2016</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/86</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/90</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/15</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/16</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3493,21 +3493,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
+          <t>2011-05-18</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2012-05-13</t>
+          <t>2016-05-18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein 2009 - 2012</t>
+          <t>Baden-Württemberg 2011 - 2016</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/85</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/89</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/17</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/15</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3539,21 +3539,21 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2009-10-27</t>
+          <t>2011-05-11</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2012-05-06</t>
+          <t>2016-05-11</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3562,17 +3562,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sachsen 2009 - 2014</t>
+          <t>Hamburg 2011 - 2015</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/84</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/87</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/5</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3585,21 +3585,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2009-09-29</t>
+          <t>2011-03-07</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3608,17 +3608,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bundestag 2009 - 2013</t>
+          <t>Nordrhein-Westfalen 2010 - 2012</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/83</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/86</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/17</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/15</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3631,21 +3631,21 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2009-10-27</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2013-09-22</t>
+          <t>2012-05-13</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3654,17 +3654,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brandenburg 2009 - 2014</t>
+          <t>Schleswig-Holstein 2009 - 2012</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/82</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/85</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/5</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/17</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3677,21 +3677,21 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2009-10-21</t>
+          <t>2009-10-27</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2014-10-21</t>
+          <t>2012-05-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3700,17 +3700,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thüringen 2009 - 2014</t>
+          <t>Sachsen 2009 - 2014</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/81</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/84</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/5</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3723,21 +3723,21 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2009-09-29</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2014-09-29</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EU-Parlament 2009 - 2014</t>
+          <t>Bundestag 2009 - 2013</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/79</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/83</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/7</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3769,21 +3769,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2009-07-14</t>
+          <t>2009-10-27</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2013-09-22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3792,17 +3792,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hessen 2009 - 2013</t>
+          <t>Brandenburg 2009 - 2014</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/78</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/82</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/18</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3815,21 +3815,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2009-02-05</t>
+          <t>2009-10-21</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2014-10-21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3838,17 +3838,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bayern 2008 - 2013</t>
+          <t>Thüringen 2009 - 2014</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/77</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/81</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/16</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -3861,21 +3861,21 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2008-10-20</t>
+          <t>2009-08-30</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2013-09-15</t>
+          <t>2014-08-30</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3884,17 +3884,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hamburg 2008 - 2011</t>
+          <t>EU-Parlament 2009 - 2014</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/76</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/79</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/19</t>
+          <t>https://www.abgeordnetenwatch.de/eu/7</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -3907,21 +3907,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2008-03-12</t>
+          <t>2009-07-14</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2011-02-20</t>
+          <t>2014-07-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3930,17 +3930,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Niedersachsen 2008 - 2013</t>
+          <t>Hessen 2009 - 2013</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/75</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/78</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/16</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/18</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -3953,21 +3953,21 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2008-02-26</t>
+          <t>2009-02-05</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2013-01-20</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Baden-Württemberg 2006 - 2011</t>
+          <t>Bayern 2008 - 2013</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/68</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/77</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/14</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3999,21 +3999,21 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2006-03-26</t>
+          <t>2008-10-20</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2011-03-27</t>
+          <t>2013-09-15</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bundestag 2005 - 2009</t>
+          <t>Hamburg 2008 - 2011</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/67</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/76</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/16</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/19</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4045,21 +4045,21 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2005-09-18</t>
+          <t>2008-03-12</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2011-02-20</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4068,17 +4068,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen 2005 - 2010</t>
+          <t>Niedersachsen 2008 - 2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/66</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/14</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4091,21 +4091,21 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2005-05-22</t>
+          <t>2008-02-26</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2010-06-10</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4114,17 +4114,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EU-Parlament 2004 - 2009</t>
+          <t>Baden-Württemberg 2006 - 2011</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/65</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/68</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/6</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4137,21 +4137,21 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2004-06-13</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2009-06-04</t>
+          <t>2011-03-27</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hamburg 2004 - 2008</t>
+          <t>Bundestag 2005 - 2009</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/64</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/67</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/18</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/16</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4183,21 +4183,21 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2004-03-18</t>
+          <t>2005-09-18</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2008-02-24</t>
+          <t>2009-09-27</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Berlin 2011 - 2016</t>
+          <t>Nordrhein-Westfalen 2005 - 2010</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/63</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/66</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/17</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/14</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -4229,21 +4229,21 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2005-05-22</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2016-09-18</t>
+          <t>2010-06-10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4252,17 +4252,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EU-Parlament 2014 - 2019</t>
+          <t>EU-Parlament 2004 - 2009</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/62</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/65</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/8</t>
+          <t>https://www.abgeordnetenwatch.de/eu/6</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4275,21 +4275,21 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2014-06-21</t>
+          <t>2004-06-13</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2009-06-04</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4298,48 +4298,44 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2020</t>
+          <t>Hamburg 2004 - 2008</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/61</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/64</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2020</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/18</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>2020-02-23</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2004-03-18</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2020-02-22</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4348,48 +4344,44 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2019</t>
+          <t>Berlin 2011 - 2016</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/60</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/63</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/17</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2016-09-18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4398,48 +4390,44 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2019</t>
+          <t>EU-Parlament 2014 - 2019</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/59</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/62</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/eu/8</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>2019-09-01</t>
-        </is>
-      </c>
+          <t>legislature</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2019-07-05</t>
+          <t>2014-06-21</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-03-31</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4448,17 +4436,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2019</t>
+          <t>Hamburg Wahl 2020</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/58</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/61</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2020</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -4470,26 +4458,26 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2019-06-23</t>
+          <t>2020-01-05</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-02-22</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4498,17 +4486,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2019</t>
+          <t>Thüringen Wahl 2019</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/57</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/60</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2019</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -4520,26 +4508,26 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2019-05-26</t>
+          <t>2019-10-27</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2019-03-25</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2019-05-25</t>
+          <t>2019-10-26</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4548,17 +4536,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2019</t>
+          <t>Brandenburg Wahl 2019</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/56</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/59</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2019</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2019</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -4570,26 +4558,26 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2019-05-26</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2019-03-25</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2019-05-25</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4598,17 +4586,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2018</t>
+          <t>Sachsen Wahl 2019</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/55</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/58</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2018</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2019</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -4620,26 +4608,26 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2018-10-28</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2018-08-27</t>
+          <t>2019-06-23</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2018-10-27</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4648,17 +4636,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2018</t>
+          <t>Bremen Wahl 2019</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/54</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/57</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2018</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2019</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4670,26 +4658,26 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2018-10-14</t>
+          <t>2019-05-26</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2018-08-13</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2018-10-13</t>
+          <t>2019-05-25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4698,17 +4686,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2017</t>
+          <t>EU-Parlament Wahl 2019</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/51</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/56</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2019</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -4720,26 +4708,26 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2017-10-15</t>
+          <t>2019-05-26</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2017-09-14</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2019-05-25</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4748,17 +4736,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2017</t>
+          <t>Hessen Wahl 2018</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/50</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/55</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2018</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4770,26 +4758,26 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2017-09-24</t>
+          <t>2018-10-28</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2017-07-20</t>
+          <t>2018-08-27</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2018-10-27</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4798,17 +4786,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2017</t>
+          <t>Bayern Wahl 2018</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/49</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/54</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2018</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -4820,26 +4808,26 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2017-05-07</t>
+          <t>2018-10-14</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2017-03-29</t>
+          <t>2018-08-13</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2017-05-06</t>
+          <t>2018-10-13</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4848,17 +4836,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2017</t>
+          <t>Niedersachsen Wahl 2017</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/48</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/51</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2017</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2017</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4870,26 +4858,26 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2017-05-14</t>
+          <t>2017-10-15</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2017-03-27</t>
+          <t>2017-09-14</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2017-05-13</t>
+          <t>2017-10-14</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4898,17 +4886,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2016</t>
+          <t>Bundestag Wahl 2017</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/47</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/50</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2017</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4920,26 +4908,26 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2016-09-04</t>
+          <t>2017-09-24</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2016-08-15</t>
+          <t>2017-07-20</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2017-09-23</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4948,17 +4936,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2016</t>
+          <t>Schleswig-Holstein Wahl 2017</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/46</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/49</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2017</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4970,26 +4958,26 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2016-09-18</t>
+          <t>2017-05-07</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2016-07-26</t>
+          <t>2017-03-29</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2016-09-17</t>
+          <t>2017-05-06</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -4998,17 +4986,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2016</t>
+          <t>Nordrhein-Westfalen Wahl 2017</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/45</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/48</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2017</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -5020,26 +5008,26 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2016-03-13</t>
+          <t>2017-05-14</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2016-02-18</t>
+          <t>2017-03-27</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2016-03-12</t>
+          <t>2017-05-13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5048,17 +5036,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2016</t>
+          <t>Mecklenburg-Vorpommern Wahl 2016</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/44</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/47</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2016</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2016</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -5070,26 +5058,26 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2016-03-13</t>
+          <t>2016-09-04</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2016-02-11</t>
+          <t>2016-08-15</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2016-03-12</t>
+          <t>2016-09-03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5098,17 +5086,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2015</t>
+          <t>Berlin Wahl 2016</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/43</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/46</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2015</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2016</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -5120,26 +5108,26 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2015-05-10</t>
+          <t>2016-09-18</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2016-07-26</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2015-05-10</t>
+          <t>2016-09-17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5148,17 +5136,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2015</t>
+          <t>Rheinland-Pfalz Wahl 2016</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/42</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/45</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2015</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2016</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -5170,26 +5158,26 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2015-02-15</t>
+          <t>2016-03-13</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2015-01-14</t>
+          <t>2016-02-18</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2015-02-14</t>
+          <t>2016-03-12</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5198,17 +5186,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2014</t>
+          <t>Baden-Württemberg Wahl 2016</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/41</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/44</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2016</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -5220,26 +5208,26 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2014-09-14</t>
+          <t>2016-03-13</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2016-02-11</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2016-03-12</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5248,17 +5236,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2014</t>
+          <t>Bremen Wahl 2015</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/43</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2015</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -5270,26 +5258,26 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2014-09-14</t>
+          <t>2015-05-10</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2015-05-10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5298,17 +5286,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2014</t>
+          <t>Hamburg Wahl 2015</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/42</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2015</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -5320,26 +5308,26 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2015-02-15</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2015-01-14</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5348,17 +5336,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2013</t>
+          <t>Brandenburg Wahl 2014</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/41</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2014</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -5370,26 +5358,26 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2013-09-15</t>
+          <t>2014-09-14</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
+          <t>2014-09-13</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5398,17 +5386,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2013</t>
+          <t>Thüringen Wahl 2014</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -5420,26 +5408,26 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2013-09-22</t>
+          <t>2014-09-14</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2013-01-18</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2013-09-21</t>
+          <t>2014-08-05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5448,17 +5436,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2013</t>
+          <t>Sachsen Wahl 2014</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -5470,26 +5458,26 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2013-09-22</t>
+          <t>2014-08-31</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2014-08-05</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2013-10-20</t>
+          <t>2014-08-31</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5498,17 +5486,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2013</t>
+          <t>Bayern Wahl 2013</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -5520,26 +5508,26 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2013-01-20</t>
+          <t>2013-09-15</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2013-01-19</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2013-01-19</t>
+          <t>2013-10-07</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5548,17 +5536,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2012</t>
+          <t>Hessen Wahl 2013</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -5570,26 +5558,26 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2012-05-13</t>
+          <t>2013-09-22</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2012-04-12</t>
+          <t>2013-01-18</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2012-05-12</t>
+          <t>2013-09-21</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5598,17 +5586,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2012</t>
+          <t>Bundestag Wahl 2013</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -5620,26 +5608,26 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2012-05-06</t>
+          <t>2013-09-22</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2012-04-05</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2012-05-05</t>
+          <t>2013-10-20</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5648,17 +5636,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Saarland Wahl 2012</t>
+          <t>Niedersachsen Wahl 2013</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -5670,26 +5658,26 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2012-03-25</t>
+          <t>2013-01-20</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2012-02-24</t>
+          <t>2013-01-19</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2012-03-24</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5698,17 +5686,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2011</t>
+          <t>Nordrhein-Westfalen Wahl 2012</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -5720,26 +5708,26 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2011-09-04</t>
+          <t>2012-05-13</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2011-07-04</t>
+          <t>2012-04-12</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2011-09-03</t>
+          <t>2012-05-12</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5748,17 +5736,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2011</t>
+          <t>Schleswig-Holstein Wahl 2012</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -5770,26 +5758,26 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2011-05-22</t>
+          <t>2012-05-06</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2011-04-21</t>
+          <t>2012-04-05</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2011-05-21</t>
+          <t>2012-05-05</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5798,17 +5786,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2011</t>
+          <t>Saarland Wahl 2012</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -5820,26 +5808,26 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2011-03-27</t>
+          <t>2012-03-25</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2011-02-26</t>
+          <t>2012-02-24</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2011-03-26</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5848,17 +5836,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2011</t>
+          <t>Mecklenburg-Vorpommern Wahl 2011</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -5870,26 +5858,26 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2011-03-27</t>
+          <t>2011-09-04</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2011-04-10</t>
+          <t>2011-07-04</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2011-05-10</t>
+          <t>2011-09-03</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5898,17 +5886,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2011</t>
+          <t>Bremen Wahl 2011</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -5920,26 +5908,26 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2011-03-20</t>
+          <t>2011-05-22</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2011-02-19</t>
+          <t>2011-04-21</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2011-03-19</t>
+          <t>2011-05-21</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5948,17 +5936,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2011</t>
+          <t>Rheinland-Pfalz Wahl 2011</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -5970,26 +5958,26 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2011-02-20</t>
+          <t>2011-03-27</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2011-01-19</t>
+          <t>2011-02-26</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2011-02-19</t>
+          <t>2011-03-26</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5998,17 +5986,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen Wahl 2010</t>
+          <t>Baden-Württemberg Wahl 2011</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -6020,26 +6008,26 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2010-05-09</t>
+          <t>2011-03-27</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2010-04-08</t>
+          <t>2011-04-10</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2010-05-08</t>
+          <t>2011-05-10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6048,17 +6036,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein Wahl 2009</t>
+          <t>Sachsen-Anhalt Wahl 2011</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -6070,26 +6058,26 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2011-03-20</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2009-08-26</t>
+          <t>2011-02-19</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2009-09-26</t>
+          <t>2011-03-19</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6098,17 +6086,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2009</t>
+          <t>Hamburg Wahl 2011</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -6120,26 +6108,26 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2011-02-20</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2009-08-26</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2009-09-26</t>
+          <t>2011-02-19</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6148,17 +6136,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2009</t>
+          <t>Nordrhein-Westfalen Wahl 2010</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -6170,26 +6158,26 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2009-09-27</t>
+          <t>2010-05-09</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2009-09-19</t>
+          <t>2010-04-08</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2009-10-26</t>
+          <t>2010-05-08</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6198,17 +6186,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2009</t>
+          <t>Schleswig-Holstein Wahl 2009</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -6225,21 +6213,21 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2009-09-20</t>
+          <t>2009-08-26</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2009-10-20</t>
+          <t>2009-09-26</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6248,17 +6236,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2009</t>
+          <t>Sachsen Wahl 2009</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -6270,26 +6258,26 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2009-09-27</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2009-07-11</t>
+          <t>2009-08-26</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2009-08-29</t>
+          <t>2009-09-26</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6298,17 +6286,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Saarland Wahl 2009</t>
+          <t>Bundestag Wahl 2009</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -6320,26 +6308,26 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2009-08-30</t>
+          <t>2009-09-27</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2009-07-29</t>
+          <t>2009-09-19</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2009-08-29</t>
+          <t>2009-10-26</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6348,17 +6336,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2009</t>
+          <t>Brandenburg Wahl 2009</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -6370,26 +6358,26 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2009-06-07</t>
+          <t>2009-09-27</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2009-05-06</t>
+          <t>2009-09-20</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2009-06-06</t>
+          <t>2009-10-20</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6398,17 +6386,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2009</t>
+          <t>Thüringen Wahl 2009</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
+          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -6420,26 +6408,26 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2009-01-28</t>
+          <t>2009-08-30</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2009-01-02</t>
+          <t>2009-07-11</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2009-01-27</t>
+          <t>2009-08-29</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6448,17 +6436,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2008</t>
+          <t>Saarland Wahl 2009</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -6470,26 +6458,26 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2008-09-28</t>
+          <t>2009-08-30</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2008-09-19</t>
+          <t>2009-07-29</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2008-10-19</t>
+          <t>2009-08-29</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6498,17 +6486,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hamburg Wahl 2008</t>
+          <t>EU-Parlament Wahl 2009</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -6520,26 +6508,26 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2008-02-24</t>
+          <t>2009-06-07</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2008-01-23</t>
+          <t>2009-05-06</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2008-02-23</t>
+          <t>2009-06-06</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6548,17 +6536,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Niedersachsen Wahl 2008</t>
+          <t>Hessen Wahl 2009</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -6570,26 +6558,26 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2008-01-27</t>
+          <t>2009-01-28</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2007-12-25</t>
+          <t>2009-01-02</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2008-01-26</t>
+          <t>2009-01-27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6598,17 +6586,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hessen Wahl 2008</t>
+          <t>Bayern Wahl 2008</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
+          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -6620,26 +6608,26 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2008-01-27</t>
+          <t>2008-09-28</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2007-12-26</t>
+          <t>2008-09-19</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2008-01-26</t>
+          <t>2008-10-19</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6648,17 +6636,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Bremen Wahl 2007</t>
+          <t>Hamburg Wahl 2008</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
+          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -6670,26 +6658,26 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2007-05-30</t>
+          <t>2008-02-24</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2007-04-29</t>
+          <t>2008-01-23</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2007-05-29</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6698,17 +6686,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern Wahl 2006</t>
+          <t>Niedersachsen Wahl 2008</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -6720,26 +6708,26 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2006-09-17</t>
+          <t>2008-01-27</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2007-12-25</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2006-09-16</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6748,17 +6736,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2006</t>
+          <t>Hessen Wahl 2008</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -6770,26 +6758,26 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2006-09-17</t>
+          <t>2008-01-27</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2007-12-26</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2006-09-16</t>
+          <t>2008-01-26</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6798,17 +6786,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt Wahl 2006</t>
+          <t>Bremen Wahl 2007</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -6820,26 +6808,26 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2006-03-26</t>
+          <t>2007-05-30</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2006-02-25</t>
+          <t>2007-04-29</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2007-05-29</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6848,17 +6836,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz Wahl 2006</t>
+          <t>Mecklenburg-Vorpommern Wahl 2006</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -6870,26 +6858,26 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2006-03-26</t>
+          <t>2006-09-17</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2006-02-18</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2006-09-16</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6898,17 +6886,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Baden-Württemberg Wahl 2006</t>
+          <t>Berlin Wahl 2006</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -6920,26 +6908,26 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2006-03-26</t>
+          <t>2006-09-17</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2006-02-25</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2006-09-16</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6948,17 +6936,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Bundestag Wahl 2005</t>
+          <t>Sachsen-Anhalt Wahl 2006</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
+          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -6970,26 +6958,26 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2005-09-18</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2006-02-25</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2005-09-18</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6998,17 +6986,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Berlin Wahl 2011</t>
+          <t>Rheinland-Pfalz Wahl 2006</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
+          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -7020,26 +7008,26 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2011-09-18</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2011-08-17</t>
+          <t>2006-02-18</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2011-09-17</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -7048,17 +7036,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>EU-Parlament Wahl 2014</t>
+          <t>Baden-Württemberg Wahl 2006</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -7070,26 +7058,26 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2014-05-25</t>
+          <t>2006-03-26</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2006-02-25</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2014-05-25</t>
+          <t>2006-03-25</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7098,17 +7086,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Thüringen Wahl 2014</t>
+          <t>Bundestag Wahl 2005</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/40</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -7120,26 +7108,26 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2014-09-14</t>
+          <t>2005-09-18</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2005-09-18</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7148,17 +7136,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sachsen Wahl 2014</t>
+          <t>Berlin Wahl 2011</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/39</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2014</t>
+          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -7170,26 +7158,26 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2011-09-18</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2011-08-17</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2014-08-31</t>
+          <t>2011-09-17</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7198,17 +7186,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Bayern Wahl 2013</t>
+          <t>EU-Parlament Wahl 2014</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/38</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2013</t>
+          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -7220,1715 +7208,15 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2013-09-15</t>
+          <t>2014-05-25</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
-        <is>
-          <t>2013-10-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B142" t="n">
-        <v>37</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Hessen Wahl 2013</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/37</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2013</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>2013-09-22</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>2013-01-18</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>2013-09-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B143" t="n">
-        <v>36</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Bundestag Wahl 2013</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/36</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2013</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>2013-09-22</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>2013-09-10</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>2013-10-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B144" t="n">
-        <v>35</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Niedersachsen Wahl 2013</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/35</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2013</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>2013-01-20</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>2013-01-19</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>2013-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B145" t="n">
-        <v>34</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Nordrhein-Westfalen Wahl 2012</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/34</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2012</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>2012-05-13</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>2012-04-12</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>2012-05-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B146" t="n">
-        <v>33</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Schleswig-Holstein Wahl 2012</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/33</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2012</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>2012-05-06</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>2012-04-05</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>2012-05-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B147" t="n">
-        <v>32</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Saarland Wahl 2012</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/32</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2012</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>2012-03-25</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>2012-02-24</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>2012-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B148" t="n">
-        <v>31</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Mecklenburg-Vorpommern Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/31</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>2011-09-04</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>2011-07-04</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>2011-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B149" t="n">
-        <v>30</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Bremen Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/30</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>2011-05-22</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>2011-04-21</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>2011-05-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B150" t="n">
-        <v>29</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Rheinland-Pfalz Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/29</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>2011-03-27</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>2011-02-26</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>2011-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B151" t="n">
-        <v>28</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Baden-Württemberg Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/28</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>2011-03-27</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>2011-04-10</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>2011-05-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Sachsen-Anhalt Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/27</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>2011-03-20</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>2011-02-19</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>2011-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Hamburg Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/26</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>2011-02-20</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>2011-01-19</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>2011-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B154" t="n">
-        <v>25</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Nordrhein-Westfalen Wahl 2010</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/25</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/nordrhein-westfalen/wahl-2010</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>2010-05-09</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>2010-04-08</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>2010-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B155" t="n">
-        <v>24</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Schleswig-Holstein Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/24</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/schleswig-holstein/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>2009-08-26</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>2009-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B156" t="n">
-        <v>23</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Sachsen Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/23</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>2009-08-26</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>2009-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B157" t="n">
-        <v>22</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Bundestag Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/22</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>2009-09-19</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>2009-10-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B158" t="n">
-        <v>21</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Brandenburg Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/21</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/brandenburg/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>2009-09-27</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>2009-09-20</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>2009-10-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B159" t="n">
-        <v>20</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Thüringen Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/20</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/thueringen/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>2009-08-30</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>2009-07-11</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>2009-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B160" t="n">
-        <v>19</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Saarland Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/19</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/saarland/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>2009-08-30</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>2009-07-29</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>2009-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B161" t="n">
-        <v>18</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>EU-Parlament Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/18</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>2009-06-07</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>2009-05-06</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>2009-06-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B162" t="n">
-        <v>17</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Hessen Wahl 2009</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/17</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2009</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>2009-01-28</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>2009-01-02</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>2009-01-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B163" t="n">
-        <v>16</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Bayern Wahl 2008</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/16</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bayern/wahl-2008</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>2008-09-28</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>2008-09-19</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>2008-10-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B164" t="n">
-        <v>15</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Hamburg Wahl 2008</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/15</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/hamburg/wahl-2008</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>2008-02-24</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>2008-01-23</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>2008-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B165" t="n">
-        <v>14</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Niedersachsen Wahl 2008</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/14</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/niedersachsen/wahl-2008</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>2008-01-27</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>2007-12-25</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>2008-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B166" t="n">
-        <v>13</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Hessen Wahl 2008</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/13</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/hessen/wahl-2008</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>2008-01-27</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>2007-12-26</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>2008-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B167" t="n">
-        <v>12</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Bremen Wahl 2007</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/12</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bremen/wahl-2007</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>2007-05-30</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>2007-04-29</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>2007-05-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Mecklenburg-Vorpommern Wahl 2006</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/11</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/mecklenburg-vorpommern/wahl-2006</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>2006-09-17</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>2006-08-16</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>2006-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B169" t="n">
-        <v>10</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Berlin Wahl 2006</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/10</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2006</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>2006-09-17</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>2006-08-16</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>2006-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Sachsen-Anhalt Wahl 2006</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/9</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/sachsen-anhalt/wahl-2006</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>2006-02-25</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>2006-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Rheinland-Pfalz Wahl 2006</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/8</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/rheinland-pfalz/wahl-2006</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>2006-02-18</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>2006-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B172" t="n">
-        <v>7</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Baden-Württemberg Wahl 2006</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/7</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/baden-wuerttemberg/wahl-2006</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>2006-03-26</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>2006-02-25</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>2006-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Bundestag Wahl 2005</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/6</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/bundestag/wahl-2005</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>2005-09-18</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>2005-08-18</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>2005-09-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B174" t="n">
-        <v>2</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Berlin Wahl 2011</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/2</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/berlin/wahl-2011</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>2011-09-18</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>2011-08-17</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>2011-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>parliament_period</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>EU-Parlament Wahl 2014</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/1</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>https://www.abgeordnetenwatch.de/eu/wahl-2014</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>election</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>2014-05-25</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>2014-04-25</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
         <is>
           <t>2014-05-25</t>
         </is>
